--- a/gestion-talento-web/src/main/resources/static/files/ReglasCargaMasiva.xlsx
+++ b/gestion-talento-web/src/main/resources/static/files/ReglasCargaMasiva.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\Proyecto\gestion-talento-web\src\main\resources\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\Proyecto\Proyecto\gestion-talento-web\src\main\resources\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,77 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+  <si>
+    <t>Campo</t>
+  </si>
+  <si>
+    <t>Tipo Documento</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TI,CC,CE,PS</t>
+  </si>
+  <si>
+    <t>Numero de documento</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>Primer nombre</t>
+  </si>
+  <si>
+    <t>Segundo Nombre</t>
+  </si>
+  <si>
+    <t>Primer Apellido</t>
+  </si>
+  <si>
+    <t>Segundo Apellido</t>
+  </si>
+  <si>
+    <t>Correo Electronico</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Jefe</t>
+  </si>
+  <si>
+    <t>Codigo usuario</t>
+  </si>
+  <si>
+    <t>Tipo Usuario</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Nombre y apellido del gerente</t>
+  </si>
+  <si>
+    <t>INGENIERIA, INFRA,MANTENIMIENTO,GERENCIA,RRHH,ADMIN</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,8 +125,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +413,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gestion-talento-web/src/main/resources/static/files/ReglasCargaMasiva.xlsx
+++ b/gestion-talento-web/src/main/resources/static/files/ReglasCargaMasiva.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Campo</t>
   </si>
@@ -90,13 +90,16 @@
   </si>
   <si>
     <t>INGENIERIA, INFRA,MANTENIMIENTO,GERENCIA,RRHH,ADMIN</t>
+  </si>
+  <si>
+    <t>Gestión Talento CMC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,16 +107,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1D3C67"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1B5587"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -121,17 +145,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1B5587"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1B5587"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1B5587"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1B5587"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -139,6 +186,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1D3C67"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -148,6 +200,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>634364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942976" y="276225"/>
+          <a:ext cx="685799" cy="548639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,228 +514,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>